--- a/Data/xsy/武汉大学中南医院/武汉大学中南医院交互明细.xlsx
+++ b/Data/xsy/武汉大学中南医院/武汉大学中南医院交互明细.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,12 +622,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2023-12-28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Staff_life_detail/13075.html</t>
+          <t>https://www.znhospital.cn/detail/7256.html</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/grk/department_dynamic/detail/13808.html</t>
+          <t>https://www.znhospital.cn/Staff_life_detail/13075.html</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7256.html</t>
+          <t>https://www.znhospital.cn/grk/department_dynamic/detail/13808.html</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2017-04-07</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2017-04-07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2017-04-28</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2017-04-28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023-12-20</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2023-12-20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2017-09-20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
+          <t>https://www.znhospital.cn/detail/8449.html</t>
         </is>
       </c>
     </row>
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2019-01-24</t>
+          <t>2023-03-24</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2023-03-24</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2017-09-20</t>
+          <t>2019-01-24</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8449.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2017-12-25</t>
+          <t>2024-04-24</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-04-24</t>
+          <t>2017-12-25</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/post_doctoral_detail/1063.html</t>
+          <t>https://www.znhospital.cn/detail/7480.html</t>
         </is>
       </c>
     </row>
@@ -1150,12 +1150,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2018-04-28</t>
+          <t>2016-10-28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7480.html</t>
+          <t>https://www.znhospital.cn/detail/8619.html</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2018-06-17</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2343.html</t>
+          <t>https://www.znhospital.cn/detail/8164.html</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8415.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6190.html</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2016-10-28</t>
+          <t>2018-04-28</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/yaoxueb/department_dynamic/detail/13155.html</t>
+          <t>https://www.znhospital.cn/detail/7401.html</t>
         </is>
       </c>
     </row>
@@ -1238,12 +1238,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8164.html</t>
+          <t>https://www.znhospital.cn/detail/8416.html</t>
         </is>
       </c>
     </row>
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2018-06-17</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Residential_training_detail/1116.html</t>
+          <t>https://www.znhospital.cn/Residential_training_detail/1114.html</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Residential_training_detail/1114.html</t>
+          <t>https://www.znhospital.cn/Residential_training_detail/1116.html</t>
         </is>
       </c>
     </row>
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2018-02-13</t>
+          <t>2024-01-23</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7401.html</t>
+          <t>https://www.znhospital.cn/detail/8415.html</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6190.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2343.html</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2018-02-13</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/yaoxueb/department_dynamic/detail/13155.html</t>
         </is>
       </c>
     </row>
@@ -1370,12 +1370,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2017-08-04</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8619.html</t>
+          <t>https://www.znhospital.cn/post_doctoral_detail/1063.html</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/12089.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2018-01-02</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/post_doctoral_detail/1063.html</t>
+          <t>https://www.znhospital.cn/detail/8619.html</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2018-04-28</t>
+          <t>2016-10-28</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2343.html</t>
+          <t>https://www.znhospital.cn/detail/8164.html</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2016-12-30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8415.html</t>
+          <t>https://www.znhospital.cn/detail/8562.html</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2023-03-21</t>
+          <t>2018-06-17</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8159.html</t>
+          <t>https://www.znhospital.cn/detail/13721.html</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1502,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2017-08-04</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8562.html</t>
+          <t>https://www.znhospital.cn/detail/8085.html</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Residential_training_detail/1116.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6190.html</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2016-10-28</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8164.html</t>
+          <t>https://www.znhospital.cn/detail/11413.html</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016-12-30</t>
+          <t>2018-04-28</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Residential_training_detail/1114.html</t>
+          <t>https://www.znhospital.cn/detail/7401.html</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1590,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11413.html</t>
+          <t>https://www.znhospital.cn/Residential_training_detail/1114.html</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1612,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2018-09-26</t>
+          <t>2023-03-21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7401.html</t>
+          <t>https://www.znhospital.cn/detail/8416.html</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1634,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2018-06-17</t>
+          <t>2018-09-26</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6190.html</t>
+          <t>https://www.znhospital.cn/Residential_training_detail/1116.html</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8085.html</t>
+          <t>https://www.znhospital.cn/detail/7704.html</t>
         </is>
       </c>
     </row>
@@ -1678,12 +1678,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2018-02-13</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7704.html</t>
+          <t>https://www.znhospital.cn/detail/8415.html</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023-05-05</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13721.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2343.html</t>
         </is>
       </c>
     </row>
@@ -1722,63 +1722,63 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2018-01-02</t>
+          <t>2018-02-13</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8619.html</t>
+          <t>https://www.znhospital.cn/detail/8159.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>江夏区纸坊街社区卫生服务中心</t>
+          <t>武汉大学医院</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2018-04-26</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8204.html</t>
+          <t>https://www.znhospital.cn/post_doctoral_detail/1063.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>湖北大学医院</t>
+          <t>武汉大学医院</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2018-04-27</t>
+          <t>2023-05-05</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8203.html</t>
+          <t>https://www.znhospital.cn/detail/12089.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>湖北大学医院</t>
+          <t>江夏区纸坊街社区卫生服务中心</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1788,12 +1788,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2018-04-26</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7269.html</t>
+          <t>https://www.znhospital.cn/detail/8204.html</t>
         </is>
       </c>
     </row>
@@ -1805,24 +1805,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2018-04-27</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8203.html</t>
+          <t>https://www.znhospital.cn/detail/7269.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>中国地质大学医院</t>
+          <t>湖北大学医院</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1832,41 +1832,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2018-04-27</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8062.html</t>
+          <t>https://www.znhospital.cn/detail/8203.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>中国地质大学医院</t>
+          <t>湖北大学医院</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2018-04-27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8203.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>洪湖市第二人民医院</t>
+          <t>中国地质大学医院</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1876,19 +1876,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/8062.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>洪湖市第二人民医院</t>
+          <t>中国地质大学医院</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2018-10-22</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6233.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2018-02-28</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8825.html</t>
+          <t>https://www.znhospital.cn/detail/13164.html</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1942,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11028.html</t>
+          <t>https://www.znhospital.cn/detail/8825.html</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13164.html</t>
+          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11028.html</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2018-02-28</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6233.html</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7682.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>浠水县人民医院</t>
+          <t>洪湖市第二人民医院</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11884.html</t>
+          <t>https://www.znhospital.cn/detail/7682.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>浠水县人民医院</t>
+          <t>洪湖市第二人民医院</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8676.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2074,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2016-08-10</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8682.html</t>
+          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2096,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
+          <t>https://www.znhospital.cn/detail/8682.html</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2016-08-01</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2016-08-01</t>
+          <t>2016-08-10</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,17 +2157,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11884.html</t>
+          <t>https://www.znhospital.cn/detail/8676.html</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7499.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11884.html</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2016-08-10</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8689.html</t>
+          <t>https://www.znhospital.cn/detail/7499.html</t>
         </is>
       </c>
     </row>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2016-07-14</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8676.html</t>
+          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
         </is>
       </c>
     </row>
@@ -2250,12 +2250,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7409.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -2272,12 +2272,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2016-07-14</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11884.html</t>
         </is>
       </c>
     </row>
@@ -2294,56 +2294,56 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2016-08-10</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/8676.html</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>麻城市人民医院</t>
+          <t>浠水县人民医院</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8643.html</t>
+          <t>https://www.znhospital.cn/detail/8689.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>麻城市人民医院</t>
+          <t>浠水县人民医院</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9291.html</t>
+          <t>https://www.znhospital.cn/detail/7409.html</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2012-10-15</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7127.html</t>
+          <t>https://www.znhospital.cn/detail/9291.html</t>
         </is>
       </c>
     </row>
@@ -2382,12 +2382,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13415.html</t>
+          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/13366.html</t>
         </is>
       </c>
     </row>
@@ -2404,12 +2404,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/13366.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
         </is>
       </c>
     </row>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2012-10-15</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13415.html</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11162.html</t>
+          <t>https://www.znhospital.cn/detail/7127.html</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2465,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2012-10-15</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9291.html</t>
+          <t>https://www.znhospital.cn/detail/8643.html</t>
         </is>
       </c>
     </row>
@@ -2492,12 +2492,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7127.html</t>
+          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11162.html</t>
         </is>
       </c>
     </row>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13415.html</t>
+          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/13366.html</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2021-04-17</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/13366.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
         </is>
       </c>
     </row>
@@ -2558,56 +2558,56 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2012-10-15</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13415.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>湖北航天医院</t>
+          <t>麻城市人民医院</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8421.html</t>
+          <t>https://www.znhospital.cn/detail/7127.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>湖北航天医院</t>
+          <t>麻城市人民医院</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2019-06-15</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/9291.html</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/7841.html</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2019-06-15</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7841.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,7 +2702,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>武穴市中医医院</t>
+          <t>湖北航天医院</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2712,41 +2712,41 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8421.html</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>蕲春县人民医院</t>
+          <t>湖北航天医院</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8185.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>蕲春县人民医院</t>
+          <t>武穴市中医医院</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2018-11-12</t>
+          <t>2017-10-26</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7405.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8348.html</t>
+          <t>https://www.znhospital.cn/detail/8185.html</t>
         </is>
       </c>
     </row>
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11871.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -2844,12 +2844,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/detail/8039.html</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8039.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2888,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2018-05-27</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -2910,12 +2910,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11871.html</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2018-05-27</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7499.html</t>
+          <t>https://www.znhospital.cn/detail/7405.html</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2018-11-12</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/8348.html</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2021-05-23</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7405.html</t>
+          <t>https://www.znhospital.cn/detail/7499.html</t>
         </is>
       </c>
     </row>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2017-12-13</t>
+          <t>2021-05-23</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11871.html</t>
+          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11208.html</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3020,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11208.html</t>
+          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6263.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -3064,56 +3064,56 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/gdyygrzzzlk/department_dynamic/detail/13209.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6263.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>应城市人民医院</t>
+          <t>蕲春县人民医院</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2017-12-13</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7465.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11871.html</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>应城市人民医院</t>
+          <t>蕲春县人民医院</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2017-11-16</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7277.html</t>
+          <t>https://www.znhospital.cn/detail/7405.html</t>
         </is>
       </c>
     </row>
@@ -3130,12 +3130,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2018-10-27</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8055.html</t>
+          <t>https://www.znhospital.cn/detail/7872.html</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11206.html</t>
+          <t>https://www.znhospital.cn/detail/7277.html</t>
         </is>
       </c>
     </row>
@@ -3174,12 +3174,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2018-10-27</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8323.html</t>
+          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11206.html</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2017-11-16</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8055.html</t>
         </is>
       </c>
     </row>
@@ -3218,12 +3218,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2021-11-26</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7872.html</t>
+          <t>https://www.znhospital.cn/detail/7465.html</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7465.html</t>
+          <t>https://www.znhospital.cn/detail/8323.html</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2021-02-27</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8055.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2018-10-27</t>
+          <t>2019-05-08</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7254.html</t>
+          <t>https://www.znhospital.cn/detail/7872.html</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2019-05-08</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2021-02-27</t>
+          <t>2018-10-27</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2373.html</t>
+          <t>https://www.znhospital.cn/detail/8055.html</t>
         </is>
       </c>
     </row>
@@ -3350,56 +3350,56 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2021-11-26</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7872.html</t>
+          <t>https://www.znhospital.cn/detail/7465.html</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>团风县人民医院</t>
+          <t>应城市人民医院</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2021-02-27</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11197.html</t>
+          <t>https://www.znhospital.cn/detail/7254.html</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>团风县人民医院</t>
+          <t>应城市人民医院</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7162.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2373.html</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2017-11-20</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8075.html</t>
+          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11197.html</t>
         </is>
       </c>
     </row>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8320.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/detail/8075.html</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2017-11-20</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/7853.html</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7162.html</t>
+          <t>https://www.znhospital.cn/detail/8320.html</t>
         </is>
       </c>
     </row>
@@ -3521,61 +3521,61 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8075.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>广水市第一人民医院</t>
+          <t>团风县人民医院</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2017-11-23</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xynk/specialty_group/detail/13720.html</t>
+          <t>https://www.znhospital.cn/detail/8075.html</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>广水市第一人民医院</t>
+          <t>团风县人民医院</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9012.html</t>
+          <t>https://www.znhospital.cn/detail/7162.html</t>
         </is>
       </c>
     </row>
@@ -3592,12 +3592,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2014-09-29</t>
+          <t>2017-11-23</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8312.html</t>
+          <t>https://www.znhospital.cn/detail/9012.html</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2017-11-23</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11162.html</t>
+          <t>https://www.znhospital.cn/detail/8312.html</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2014-09-29</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
+          <t>2017-11-23</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3670,44 +3670,44 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>南漳县人民医院</t>
+          <t>广水市第一人民医院</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8685.html</t>
+          <t>https://www.znhospital.cn/xynk/specialty_group/detail/13720.html</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>南漳县人民医院</t>
+          <t>广水市第一人民医院</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2016-07-29</t>
+          <t>2021-04-17</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8308.html</t>
+          <t>https://www.znhospital.cn/xwk/department_dynamic/detail/11162.html</t>
         </is>
       </c>
     </row>
@@ -3724,12 +3724,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2017-11-28</t>
+          <t>2016-07-29</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/13164.html</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8685.html</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13164.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -3785,17 +3785,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2016-07-29</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8685.html</t>
+          <t>https://www.znhospital.cn/detail/8308.html</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2017-11-28</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3824,44 +3824,44 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>大悟县人民医院</t>
+          <t>南漳县人民医院</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2014-03-26</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8888.html</t>
+          <t>https://www.znhospital.cn/detail/8685.html</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>大悟县人民医院</t>
+          <t>南漳县人民医院</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2016-07-29</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9224.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3878,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8702.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2839.html</t>
         </is>
       </c>
     </row>
@@ -3900,12 +3900,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2838.html</t>
+          <t>https://www.znhospital.cn/detail/9082.html</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9082.html</t>
+          <t>https://www.znhospital.cn/detail/12497.html</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/12497.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/8075.html</t>
         </is>
       </c>
     </row>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2015-04-27</t>
+          <t>2013-04-17</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9711.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2838.html</t>
         </is>
       </c>
     </row>
@@ -4010,12 +4010,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2018-11-13</t>
+          <t>2015-04-27</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8292.html</t>
+          <t>https://www.znhospital.cn/detail/9711.html</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8075.html</t>
+          <t>https://www.znhospital.cn/detail/8292.html</t>
         </is>
       </c>
     </row>
@@ -4054,12 +4054,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2839.html</t>
+          <t>https://www.znhospital.cn/detail/8702.html</t>
         </is>
       </c>
     </row>
@@ -4076,12 +4076,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2016-06-12</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12217.html</t>
         </is>
       </c>
     </row>
@@ -4098,12 +4098,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2016-06-12</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/9224.html</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7254.html</t>
+          <t>https://www.znhospital.cn/detail/8888.html</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2017-12-15</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8702.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
@@ -4164,12 +4164,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2012-08-27</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2838.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2839.html</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2023-05-19</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8724.html</t>
+          <t>https://www.znhospital.cn/detail/9082.html</t>
         </is>
       </c>
     </row>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2014-07-07</t>
+          <t>2017-12-15</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9082.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2016-05-13</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2570.html</t>
         </is>
       </c>
     </row>
@@ -4252,12 +4252,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2018-11-13</t>
+          <t>2018-10-12</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8292.html</t>
+          <t>https://www.znhospital.cn/detail/8075.html</t>
         </is>
       </c>
     </row>
@@ -4274,12 +4274,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2014-07-07</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8075.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2838.html</t>
         </is>
       </c>
     </row>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2012-08-27</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2839.html</t>
+          <t>https://www.znhospital.cn/detail/9051.html</t>
         </is>
       </c>
     </row>
@@ -4318,12 +4318,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2016-06-12</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
+          <t>https://www.znhospital.cn/detail/8292.html</t>
         </is>
       </c>
     </row>
@@ -4340,12 +4340,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2018-10-12</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2570.html</t>
+          <t>https://www.znhospital.cn/detail/8702.html</t>
         </is>
       </c>
     </row>
@@ -4362,12 +4362,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2016-05-13</t>
+          <t>2016-06-12</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/8724.html</t>
         </is>
       </c>
     </row>
@@ -4384,56 +4384,56 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2014-03-26</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9051.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12217.html</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>英山县人民医院</t>
+          <t>大悟县人民医院</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6536.html</t>
+          <t>https://www.znhospital.cn/detail/7254.html</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>英山县人民医院</t>
+          <t>大悟县人民医院</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2019-04-12</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7721.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
@@ -4450,12 +4450,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/Staff_life_detail/3373.html</t>
         </is>
       </c>
     </row>
@@ -4472,12 +4472,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2018-11-23</t>
+          <t>2016-04-06</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8750.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -4494,12 +4494,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2018-11-18</t>
+          <t>2013-07-23</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Staff_life_detail/3373.html</t>
+          <t>https://www.znhospital.cn/detail/8750.html</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2016-01-09</t>
+          <t>2019-10-30</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7690.html</t>
+          <t>https://www.znhospital.cn/detail/8027.html</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2014-01-27</t>
+          <t>2015-07-02</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9095.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6536.html</t>
         </is>
       </c>
     </row>
@@ -4582,12 +4582,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2019-04-12</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8027.html</t>
+          <t>https://www.znhospital.cn/detail/9095.html</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2016-04-06</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7903.html</t>
+          <t>https://www.znhospital.cn/detail/7721.html</t>
         </is>
       </c>
     </row>
@@ -4648,12 +4648,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2015-07-02</t>
+          <t>2014-01-27</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9189.html</t>
+          <t>https://www.znhospital.cn/detail/8020.html</t>
         </is>
       </c>
     </row>
@@ -4670,12 +4670,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2013-07-23</t>
+          <t>2018-11-18</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/7903.html</t>
         </is>
       </c>
     </row>
@@ -4692,12 +4692,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2016-01-09</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8020.html</t>
+          <t>https://www.znhospital.cn/detail/9189.html</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7721.html</t>
+          <t>https://www.znhospital.cn/detail/7690.html</t>
         </is>
       </c>
     </row>
@@ -4731,17 +4731,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2019-04-12</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7554.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/8343.html</t>
         </is>
       </c>
     </row>
@@ -4780,12 +4780,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2016-04-06</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8750.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4802,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2016-11-24</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9051.html</t>
+          <t>https://www.znhospital.cn/detail/8750.html</t>
         </is>
       </c>
     </row>
@@ -4824,12 +4824,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2018-11-23</t>
+          <t>2017-10-31</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7690.html</t>
+          <t>https://www.znhospital.cn/detail/9051.html</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2017-12-29</t>
+          <t>2019-10-30</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8343.html</t>
+          <t>https://www.znhospital.cn/detail/7682.html</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4890,12 +4890,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2017-10-31</t>
+          <t>2014-07-07</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
+          <t>https://www.znhospital.cn/detail/8281.html</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2014-07-07</t>
+          <t>2017-12-28</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8283.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9095.html</t>
+          <t>https://www.znhospital.cn/detail/7554.html</t>
         </is>
       </c>
     </row>
@@ -4956,12 +4956,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2014-01-27</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8281.html</t>
+          <t>https://www.znhospital.cn/detail/9095.html</t>
         </is>
       </c>
     </row>
@@ -4978,12 +4978,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2019-04-12</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7903.html</t>
+          <t>https://www.znhospital.cn/detail/7721.html</t>
         </is>
       </c>
     </row>
@@ -5000,12 +5000,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2016-04-06</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7682.html</t>
+          <t>https://www.znhospital.cn/detail/8020.html</t>
         </is>
       </c>
     </row>
@@ -5022,12 +5022,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2016-11-24</t>
+          <t>2014-01-27</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/7903.html</t>
         </is>
       </c>
     </row>
@@ -5044,56 +5044,56 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>2017-12-29</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8020.html</t>
+          <t>https://www.znhospital.cn/detail/7690.html</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>罗田县人民医院</t>
+          <t>英山县人民医院</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2018-08-10</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7462.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>罗田县人民医院</t>
+          <t>英山县人民医院</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8280.html</t>
+          <t>https://www.znhospital.cn/detail/8283.html</t>
         </is>
       </c>
     </row>
@@ -5110,12 +5110,12 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2017-12-29</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2818.html</t>
+          <t>https://www.znhospital.cn/detail/13164.html</t>
         </is>
       </c>
     </row>
@@ -5132,12 +5132,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2018-08-10</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13164.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -5154,12 +5154,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8132.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11877.html</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/detail/7462.html</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2818.html</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11877.html</t>
+          <t>https://www.znhospital.cn/detail/8280.html</t>
         </is>
       </c>
     </row>
@@ -5237,17 +5237,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2018-08-10</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7462.html</t>
+          <t>https://www.znhospital.cn/detail/8132.html</t>
         </is>
       </c>
     </row>
@@ -5259,17 +5259,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2018-10-07</t>
+          <t>2017-12-29</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8079.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2017-12-28</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8280.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11877.html</t>
         </is>
       </c>
     </row>
@@ -5308,12 +5308,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2017-12-29</t>
+          <t>2018-08-10</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7409.html</t>
+          <t>https://www.znhospital.cn/detail/7462.html</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8132.html</t>
+          <t>https://www.znhospital.cn/detail/8280.html</t>
         </is>
       </c>
     </row>
@@ -5374,12 +5374,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2019-07-11</t>
+          <t>2017-12-28</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8283.html</t>
+          <t>https://www.znhospital.cn/detail/8079.html</t>
         </is>
       </c>
     </row>
@@ -5396,56 +5396,56 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2019-07-11</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11877.html</t>
+          <t>https://www.znhospital.cn/detail/8132.html</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>仙桃市第一人民医院</t>
+          <t>罗田县人民医院</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2018-10-07</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11633.html</t>
+          <t>https://www.znhospital.cn/detail/7409.html</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>仙桃市第一人民医院</t>
+          <t>罗田县人民医院</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2017-12-29</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8035.html</t>
+          <t>https://www.znhospital.cn/detail/8283.html</t>
         </is>
       </c>
     </row>
@@ -5462,12 +5462,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2014-12-01</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8069.html</t>
+          <t>https://www.znhospital.cn/detail/8035.html</t>
         </is>
       </c>
     </row>
@@ -5484,12 +5484,12 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8968.html</t>
+          <t>https://www.znhospital.cn/detail/8832.html</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8270.html</t>
+          <t>https://www.znhospital.cn/detail/11675.html</t>
         </is>
       </c>
     </row>
@@ -5528,12 +5528,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/8069.html</t>
         </is>
       </c>
     </row>
@@ -5550,12 +5550,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8005.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5572,12 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2018-12-05</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11675.html</t>
+          <t>https://www.znhospital.cn/detail/8968.html</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5594,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2018-12-05</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/shylfzb/bmdt/detail/13401.html</t>
+          <t>https://www.znhospital.cn/detail/7853.html</t>
         </is>
       </c>
     </row>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2023-04-24</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8832.html</t>
+          <t>https://www.znhospital.cn/detail/8270.html</t>
         </is>
       </c>
     </row>
@@ -5638,12 +5638,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2018-11-13</t>
+          <t>2014-12-01</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/8005.html</t>
         </is>
       </c>
     </row>
@@ -5660,12 +5660,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2018-01-16</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/shylfzb/bmdt/detail/13401.html</t>
         </is>
       </c>
     </row>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2018-01-16</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7936.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -5704,12 +5704,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7853.html</t>
+          <t>https://www.znhospital.cn/detail/7936.html</t>
         </is>
       </c>
     </row>
@@ -5721,17 +5721,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2023-04-25</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7840.html</t>
+          <t>https://www.znhospital.cn/detail/11633.html</t>
         </is>
       </c>
     </row>
@@ -5743,17 +5743,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-04-24</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7499.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2019-03-08</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7822.html</t>
+          <t>https://www.znhospital.cn/detail/7499.html</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2015-08-11</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2018-11-13</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8270.html</t>
+          <t>https://www.znhospital.cn/detail/8665.html</t>
         </is>
       </c>
     </row>
@@ -5836,12 +5836,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/8832.html</t>
         </is>
       </c>
     </row>
@@ -5858,12 +5858,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2018-10-25</t>
+          <t>2019-07-10</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7409.html</t>
+          <t>https://www.znhospital.cn/detail/11675.html</t>
         </is>
       </c>
     </row>
@@ -5880,12 +5880,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2844.html</t>
+          <t>https://www.znhospital.cn/detail/7840.html</t>
         </is>
       </c>
     </row>
@@ -5902,12 +5902,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2018-11-13</t>
+          <t>2015-08-11</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8665.html</t>
+          <t>https://www.znhospital.cn/detail/7682.html</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/pfk/department_dynamic/detail/13376.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2019-06-19</t>
+          <t>2018-01-16</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11675.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2844.html</t>
         </is>
       </c>
     </row>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2019-07-10</t>
+          <t>2016-08-28</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8832.html</t>
+          <t>https://www.znhospital.cn/detail/8270.html</t>
         </is>
       </c>
     </row>
@@ -5990,12 +5990,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2018-01-16</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/pfk/department_dynamic/detail/13376.html</t>
         </is>
       </c>
     </row>
@@ -6012,12 +6012,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2016-08-28</t>
+          <t>2018-10-25</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7936.html</t>
+          <t>https://www.znhospital.cn/detail/7822.html</t>
         </is>
       </c>
     </row>
@@ -6034,56 +6034,56 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2019-03-08</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7682.html</t>
+          <t>https://www.znhospital.cn/detail/7936.html</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>黄梅县人民医院</t>
+          <t>仙桃市第一人民医院</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11819.html</t>
+          <t>https://www.znhospital.cn/detail/7409.html</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>黄梅县人民医院</t>
+          <t>仙桃市第一人民医院</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-04-25</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
@@ -6100,12 +6100,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7971.html</t>
+          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
         </is>
       </c>
     </row>
@@ -6122,12 +6122,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/12497.html</t>
+          <t>https://www.znhospital.cn/detail/13164.html</t>
         </is>
       </c>
     </row>
@@ -6144,12 +6144,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2019-01-13</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11798.html</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2023-04-28</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9348.html</t>
+          <t>https://www.znhospital.cn/detail/12497.html</t>
         </is>
       </c>
     </row>
@@ -6188,12 +6188,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
+          <t>https://www.znhospital.cn/detail/7809.html</t>
         </is>
       </c>
     </row>
@@ -6210,12 +6210,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2019-01-13</t>
+          <t>2012-05-29</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/12235.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2019-12-08</t>
+          <t>2019-07-20</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7809.html</t>
+          <t>https://www.znhospital.cn/detail/9348.html</t>
         </is>
       </c>
     </row>
@@ -6254,12 +6254,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11416.html</t>
+          <t>https://www.znhospital.cn/detail/7971.html</t>
         </is>
       </c>
     </row>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2012-05-29</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11819.html</t>
         </is>
       </c>
     </row>
@@ -6298,12 +6298,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11798.html</t>
+          <t>https://www.znhospital.cn/detail/7674.html</t>
         </is>
       </c>
     </row>
@@ -6320,12 +6320,12 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2019-07-20</t>
+          <t>2019-12-08</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -6342,12 +6342,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7674.html</t>
+          <t>https://www.znhospital.cn/detail/11416.html</t>
         </is>
       </c>
     </row>
@@ -6359,17 +6359,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7098.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -6381,17 +6381,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2023-04-28</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7681.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2021-06-19</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6430,12 +6430,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2023-03-27</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
         </is>
       </c>
     </row>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2023-05-22</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7682.html</t>
+          <t>https://www.znhospital.cn/detail/7809.html</t>
         </is>
       </c>
     </row>
@@ -6474,12 +6474,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/grk/communication_cooperation/detail/10711.html</t>
+          <t>https://www.znhospital.cn/detail/7682.html</t>
         </is>
       </c>
     </row>
@@ -6496,12 +6496,12 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2019-11-24</t>
+          <t>2023-05-22</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/12235.html</t>
+          <t>https://www.znhospital.cn/detail/7674.html</t>
         </is>
       </c>
     </row>
@@ -6518,12 +6518,12 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-24</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Staff_life_detail/3328.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -6540,12 +6540,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2021-06-19</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7809.html</t>
+          <t>https://www.znhospital.cn/detail/7390.html</t>
         </is>
       </c>
     </row>
@@ -6562,12 +6562,12 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2019-12-08</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11416.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2399.html</t>
         </is>
       </c>
     </row>
@@ -6584,12 +6584,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2019-07-20</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2399.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/12235.html</t>
         </is>
       </c>
     </row>
@@ -6606,12 +6606,12 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11406.html</t>
+          <t>https://www.znhospital.cn/detail/7681.html</t>
         </is>
       </c>
     </row>
@@ -6628,12 +6628,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2019-07-20</t>
+          <t>2019-12-08</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7390.html</t>
+          <t>https://www.znhospital.cn/Staff_life_detail/3328.html</t>
         </is>
       </c>
     </row>
@@ -6650,56 +6650,56 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2023-03-27</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7674.html</t>
+          <t>https://www.znhospital.cn/detail/7098.html</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>黄石市第五医院</t>
+          <t>黄梅县人民医院</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7756.html</t>
+          <t>https://www.znhospital.cn/detail/11406.html</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>黄石市第五医院</t>
+          <t>黄梅县人民医院</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/11416.html</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2019-09-25</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6738,12 +6738,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2013-10-14</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8049.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
         </is>
       </c>
     </row>
@@ -6760,12 +6760,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2013-10-14</t>
+          <t>2019-09-25</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
+          <t>https://www.znhospital.cn/detail/7756.html</t>
         </is>
       </c>
     </row>
@@ -6782,12 +6782,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8049.html</t>
         </is>
       </c>
     </row>
@@ -6821,17 +6821,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -6843,12 +6843,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6870,12 +6870,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2013-10-14</t>
+          <t>2014-10-13</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9156.html</t>
+          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11195.html</t>
         </is>
       </c>
     </row>
@@ -6892,56 +6892,56 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2014-10-13</t>
+          <t>2013-10-14</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/xwk/special_inspection/detail/11195.html</t>
+          <t>https://www.znhospital.cn/detail/9156.html</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>红安县人民医院</t>
+          <t>黄石市第五医院</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>红安县人民医院</t>
+          <t>黄石市第五医院</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/6642.html</t>
         </is>
       </c>
     </row>
@@ -6958,12 +6958,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2018-03-29</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12362.html</t>
         </is>
       </c>
     </row>
@@ -6980,12 +6980,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2019-01-24</t>
+          <t>2014-11-07</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8983.html</t>
+          <t>https://www.znhospital.cn/detail/7947.html</t>
         </is>
       </c>
     </row>
@@ -7002,12 +7002,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2019-02-22</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7947.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2014-11-07</t>
+          <t>2018-03-29</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
@@ -7068,12 +7068,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2019-02-22</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12362.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
         </is>
       </c>
     </row>
@@ -7085,17 +7085,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12362.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -7107,17 +7107,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2019-01-21</t>
+          <t>2019-01-24</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/8983.html</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7696.html</t>
+          <t>https://www.znhospital.cn/detail/8198.html</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8198.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2738.html</t>
         </is>
       </c>
     </row>
@@ -7178,12 +7178,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2023-06-09</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2738.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/department_dynamic/detail/12362.html</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8224.html</t>
+          <t>https://www.znhospital.cn/detail/7696.html</t>
         </is>
       </c>
     </row>
@@ -7222,41 +7222,41 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2023-06-09</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7965.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>谷城县人民医院</t>
+          <t>红安县人民医院</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2018-05-17</t>
+          <t>2019-01-21</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8187.html</t>
+          <t>https://www.znhospital.cn/detail/8224.html</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>谷城县人民医院</t>
+          <t>红安县人民医院</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -7266,19 +7266,19 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2018-05-17</t>
+          <t>2021-12-21</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8187.html</t>
+          <t>https://www.znhospital.cn/detail/7965.html</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>武穴市第一人民医院</t>
+          <t>谷城县人民医院</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -7288,34 +7288,34 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-05-17</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11876.html</t>
+          <t>https://www.znhospital.cn/detail/8187.html</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>武穴市第一人民医院</t>
+          <t>谷城县人民医院</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2015-09-05</t>
+          <t>2018-05-17</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8082.html</t>
+          <t>https://www.znhospital.cn/detail/8187.html</t>
         </is>
       </c>
     </row>
@@ -7332,12 +7332,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2018-05-30</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8180.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11876.html</t>
         </is>
       </c>
     </row>
@@ -7354,12 +7354,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8822.html</t>
+          <t>https://www.znhospital.cn/detail/8180.html</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8082.html</t>
         </is>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/shylfzb/bmdt/detail/13520.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -7415,12 +7415,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>2018-05-30</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7442,56 +7442,56 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/opok/health_education/detail/11876.html</t>
+          <t>https://www.znhospital.cn/shylfzb/bmdt/detail/13520.html</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>孝感市第一人民医院</t>
+          <t>武穴市第一人民医院</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2014-03-26</t>
+          <t>2015-09-05</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8923.html</t>
+          <t>https://www.znhospital.cn/detail/8822.html</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>孝感市第一人民医院</t>
+          <t>武穴市第一人民医院</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2014-09-22</t>
+          <t>2024-05-13</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9224.html</t>
+          <t>https://www.znhospital.cn/opok/health_education/detail/11876.html</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8165.html</t>
+          <t>https://www.znhospital.cn/media_centers_detail/7004.html</t>
         </is>
       </c>
     </row>
@@ -7530,12 +7530,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2018-11-11</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8040.html</t>
+          <t>https://www.znhospital.cn/detail/8165.html</t>
         </is>
       </c>
     </row>
@@ -7552,12 +7552,12 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2019-06-15</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/9082.html</t>
         </is>
       </c>
     </row>
@@ -7574,12 +7574,12 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2018-11-23</t>
+          <t>2013-04-17</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9082.html</t>
+          <t>https://www.znhospital.cn/detail/8040.html</t>
         </is>
       </c>
     </row>
@@ -7596,12 +7596,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7579.html</t>
+          <t>https://www.znhospital.cn/detail/7429.html</t>
         </is>
       </c>
     </row>
@@ -7618,12 +7618,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8020.html</t>
+          <t>https://www.znhospital.cn/detail/7841.html</t>
         </is>
       </c>
     </row>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2012-08-22</t>
+          <t>2019-06-15</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9238.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/communication_cooperation/detail/12126.html</t>
         </is>
       </c>
     </row>
@@ -7662,12 +7662,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2018-11-19</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9018.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -7684,12 +7684,12 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2018-11-19</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8024.html</t>
         </is>
       </c>
     </row>
@@ -7706,12 +7706,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2013-02-20</t>
+          <t>2018-11-11</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9095.html</t>
+          <t>https://www.znhospital.cn/detail/9238.html</t>
         </is>
       </c>
     </row>
@@ -7728,12 +7728,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2012-12-04</t>
+          <t>2015-02-09</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/rxymnzlk/communication_cooperation/detail/12126.html</t>
+          <t>https://www.znhospital.cn/detail/7579.html</t>
         </is>
       </c>
     </row>
@@ -7750,12 +7750,12 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2014-01-27</t>
+          <t>2014-09-22</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8024.html</t>
+          <t>https://www.znhospital.cn/detail/9095.html</t>
         </is>
       </c>
     </row>
@@ -7772,12 +7772,12 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2015-02-09</t>
+          <t>2013-02-20</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9263.html</t>
+          <t>https://www.znhospital.cn/detail/8020.html</t>
         </is>
       </c>
     </row>
@@ -7794,12 +7794,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2018-06-14</t>
+          <t>2014-01-27</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/media_centers_detail/7004.html</t>
+          <t>https://www.znhospital.cn/detail/9018.html</t>
         </is>
       </c>
     </row>
@@ -7816,12 +7816,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2014-03-26</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7429.html</t>
+          <t>https://www.znhospital.cn/detail/9263.html</t>
         </is>
       </c>
     </row>
@@ -7838,12 +7838,12 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2012-08-22</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7841.html</t>
+          <t>https://www.znhospital.cn/detail/8923.html</t>
         </is>
       </c>
     </row>
@@ -7855,17 +7855,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2018-06-14</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7254.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -7877,17 +7877,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2014-03-26</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8040.html</t>
+          <t>https://www.znhospital.cn/detail/9224.html</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/11507.html</t>
+          <t>https://www.znhospital.cn/yyddh_detail/10361.html</t>
         </is>
       </c>
     </row>
@@ -7926,12 +7926,12 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>2018-11-11</t>
+          <t>2020-11-29</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/9082.html</t>
         </is>
       </c>
     </row>
@@ -7948,12 +7948,12 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2023-04-20</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9082.html</t>
+          <t>https://www.znhospital.cn/detail/8040.html</t>
         </is>
       </c>
     </row>
@@ -7970,12 +7970,12 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>2018-11-23</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7514.html</t>
+          <t>https://www.znhospital.cn/detail/7696.html</t>
         </is>
       </c>
     </row>
@@ -7992,12 +7992,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7696.html</t>
+          <t>https://www.znhospital.cn/rxymnzlk/communication_cooperation/detail/12126.html</t>
         </is>
       </c>
     </row>
@@ -8014,12 +8014,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>2023-04-20</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/yyddh_detail/10361.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2018-11-11</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9095.html</t>
+          <t>https://www.znhospital.cn/detail/7682.html</t>
         </is>
       </c>
     </row>
@@ -8058,12 +8058,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>2014-01-27</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/rxymnzlk/communication_cooperation/detail/12126.html</t>
+          <t>https://www.znhospital.cn/detail/9095.html</t>
         </is>
       </c>
     </row>
@@ -8080,12 +8080,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2014-01-27</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7682.html</t>
+          <t>https://www.znhospital.cn/detail/8020.html</t>
         </is>
       </c>
     </row>
@@ -8102,56 +8102,56 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2014-03-26</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8020.html</t>
+          <t>https://www.znhospital.cn/detail/7254.html</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>荆门市中医医院</t>
+          <t>孝感市第一人民医院</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7812.html</t>
+          <t>https://www.znhospital.cn/detail/7514.html</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>荆门市中医医院</t>
+          <t>孝感市第一人民医院</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/11507.html</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8160.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -8185,24 +8185,24 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7812.html</t>
+          <t>https://www.znhospital.cn/detail/8160.html</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>建始县人民医院</t>
+          <t>荆门市中医医院</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -8212,34 +8212,34 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>2018-06-27</t>
+          <t>2019-07-17</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/7812.html</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>建始县人民医院</t>
+          <t>荆门市中医医院</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2019-07-17</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8019.html</t>
+          <t>https://www.znhospital.cn/detail/7812.html</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8158.html</t>
+          <t>https://www.znhospital.cn/detail/8019.html</t>
         </is>
       </c>
     </row>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>2018-11-23</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -8295,12 +8295,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2018-06-27</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -8312,7 +8312,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>石首市人民医院</t>
+          <t>建始县人民医院</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -8322,34 +8322,34 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>2018-08-30</t>
+          <t>2018-11-23</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8118.html</t>
+          <t>https://www.znhospital.cn/detail/8158.html</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>石首市人民医院</t>
+          <t>建始县人民医院</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>2018-10-25</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Party_dynamic_detail/2836.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -8366,12 +8366,12 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>2019-06-02</t>
+          <t>2018-11-21</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8021.html</t>
+          <t>https://www.znhospital.cn/detail/8058.html</t>
         </is>
       </c>
     </row>
@@ -8388,12 +8388,12 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>2018-11-21</t>
+          <t>2019-06-02</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8058.html</t>
+          <t>https://www.znhospital.cn/Party_dynamic_detail/2836.html</t>
         </is>
       </c>
     </row>
@@ -8405,24 +8405,24 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>2018-10-25</t>
+          <t>2018-08-30</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8058.html</t>
+          <t>https://www.znhospital.cn/detail/8118.html</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>襄州区人民医院</t>
+          <t>石首市人民医院</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -8432,34 +8432,34 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>2018-09-13</t>
+          <t>2018-10-25</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8098.html</t>
+          <t>https://www.znhospital.cn/detail/8021.html</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>襄州区人民医院</t>
+          <t>石首市人民医院</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2018-10-25</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/JZCGMWK/health_education/detail/13488.html</t>
+          <t>https://www.znhospital.cn/detail/8058.html</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8488,7 +8488,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>枣阳市第一人民医院</t>
+          <t>襄州区人民医院</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -8498,34 +8498,34 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>2013-05-28</t>
+          <t>2018-09-13</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/8098.html</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>枣阳市第一人民医院</t>
+          <t>襄州区人民医院</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8334.html</t>
+          <t>https://www.znhospital.cn/JZCGMWK/health_education/detail/13488.html</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>2017-11-10</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8070.html</t>
+          <t>https://www.znhospital.cn/detail/9209.html</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9209.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7851.html</t>
+          <t>https://www.znhospital.cn/detail/8334.html</t>
         </is>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13044.html</t>
+          <t>https://www.znhospital.cn/detail/8070.html</t>
         </is>
       </c>
     </row>
@@ -8625,17 +8625,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>2018-10-18</t>
+          <t>2017-11-10</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/9209.html</t>
+          <t>https://www.znhospital.cn/detail/7851.html</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2018-10-18</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8664,51 +8664,51 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>阳新县中医医院</t>
+          <t>枣阳市第一人民医院</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>2018-10-25</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8057.html</t>
+          <t>https://www.znhospital.cn/detail/13044.html</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>阳新县第三人民医院</t>
+          <t>枣阳市第一人民医院</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>2019-01-24</t>
+          <t>2013-05-28</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8057.html</t>
+          <t>https://www.znhospital.cn/detail/9209.html</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>阳新县第三人民医院</t>
+          <t>阳新县中医医院</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -8723,14 +8723,14 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
+          <t>https://www.znhospital.cn/detail/8057.html</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>漯河市第六人民医院</t>
+          <t>阳新县第三人民医院</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -8740,19 +8740,19 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>2017-03-06</t>
+          <t>2019-01-24</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/8057.html</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>漯河市第六人民医院</t>
+          <t>阳新县第三人民医院</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -8762,12 +8762,12 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>2019-05-27</t>
+          <t>2018-10-25</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/8536.html</t>
+          <t>https://www.znhospital.cn/Nursing_trends_detail/2420.html</t>
         </is>
       </c>
     </row>
@@ -8784,12 +8784,12 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2017-03-06</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7853.html</t>
+          <t>https://www.znhospital.cn/detail/8536.html</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8818,7 +8818,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区第三人民医院</t>
+          <t>漯河市第六人民医院</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -8828,19 +8828,19 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2019-05-27</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/7853.html</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区第三人民医院</t>
+          <t>漯河市第六人民医院</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -8862,7 +8862,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>老河口市第一医院</t>
+          <t>新疆维吾尔自治区第三人民医院</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -8872,24 +8872,24 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7257.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>老河口市第一医院</t>
+          <t>新疆维吾尔自治区第三人民医院</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7556.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/7257.html</t>
         </is>
       </c>
     </row>
@@ -8938,12 +8938,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13164.html</t>
+          <t>https://www.znhospital.cn/detail/7556.html</t>
         </is>
       </c>
     </row>
@@ -8955,17 +8955,17 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2024-01-27</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7257.html</t>
+          <t>https://www.znhospital.cn/detail/13164.html</t>
         </is>
       </c>
     </row>
@@ -8977,17 +8977,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7660.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
@@ -9004,41 +9004,41 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7596.html</t>
+          <t>https://www.znhospital.cn/detail/7257.html</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>新疆兵团第四师医院</t>
+          <t>老河口市第一医院</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7720.html</t>
+          <t>https://www.znhospital.cn/detail/7660.html</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>新疆兵团第四师医院</t>
+          <t>老河口市第一医院</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -9048,19 +9048,19 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/7720.html</t>
+          <t>https://www.znhospital.cn/detail/7596.html</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>信阳市人民医院</t>
+          <t>新疆兵团第四师医院</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -9070,34 +9070,34 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13093.html</t>
+          <t>https://www.znhospital.cn/detail/7720.html</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>信阳市人民医院</t>
+          <t>新疆兵团第四师医院</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>合作</t>
+          <t>沟通</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/JZCGMWK/health_education/detail/13488.html</t>
+          <t>https://www.znhospital.cn/detail/7720.html</t>
         </is>
       </c>
     </row>
@@ -9109,17 +9109,17 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>https://www.znhospital.cn/detail/13093.html</t>
+          <t>https://www.znhospital.cn/JZCGMWK/health_education/detail/13488.html</t>
         </is>
       </c>
     </row>
@@ -9131,17 +9131,61 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>沟通</t>
+          <t>合作</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>https://www.znhospital.cn/detail/13093.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>信阳市人民医院</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
           <t>2024-01-15</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr">
+      <c r="D397" t="inlineStr">
         <is>
           <t>https://www.znhospital.cn/JZCGMWK/health_education/detail/13488.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>信阳市人民医院</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2024-01-11</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>https://www.znhospital.cn/detail/13093.html</t>
         </is>
       </c>
     </row>
